--- a/FlightReservation/TestData/Data.xlsx
+++ b/FlightReservation/TestData/Data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="14220" windowHeight="7230"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="14100" windowHeight="7230"/>
   </bookViews>
   <sheets>
     <sheet name="data2" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -375,7 +376,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
